--- a/data/baru/05 - Evaluasi Proses Induk - Maret 2020.xlsx
+++ b/data/baru/05 - Evaluasi Proses Induk - Maret 2020.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\argopuro\data\baru\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DA6474-8313-4A42-BFA3-81F48E6D5635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="300" windowWidth="15480" windowHeight="7560" tabRatio="751"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="751" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rekap Induk" sheetId="16" r:id="rId1"/>
@@ -17,7 +23,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'BTB-1, 2, 3'!$B$2:$U$169</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'BTB-4'!$B$2:$U$165</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -405,7 +419,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1995,15 +2009,45 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2021,36 +2065,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2074,27 +2088,27 @@
   <cellStyles count="23">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
-    <cellStyle name="Comma [0] 2" xfId="9"/>
-    <cellStyle name="Comma [0] 2 2" xfId="10"/>
-    <cellStyle name="Comma [0] 3" xfId="2"/>
-    <cellStyle name="Comma [0] 4" xfId="11"/>
-    <cellStyle name="Comma 2" xfId="12"/>
-    <cellStyle name="Comma 2 2" xfId="13"/>
-    <cellStyle name="Comma 2 2 2" xfId="20"/>
-    <cellStyle name="Comma 3" xfId="8"/>
-    <cellStyle name="Comma 3 2" xfId="14"/>
-    <cellStyle name="Comma 4" xfId="15"/>
-    <cellStyle name="Comma 4 2" xfId="16"/>
-    <cellStyle name="Comma 5" xfId="17"/>
+    <cellStyle name="Comma [0] 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Comma [0] 2 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Comma [0] 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Comma [0] 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Comma 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Comma 2 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Comma 3" xfId="8" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Comma 3 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Comma 4" xfId="15" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Comma 4 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Comma 5" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 2 2" xfId="7"/>
-    <cellStyle name="Normal 2 2 2" xfId="21"/>
-    <cellStyle name="Normal 3" xfId="18"/>
-    <cellStyle name="Normal 4" xfId="22"/>
-    <cellStyle name="Normal 6" xfId="19"/>
-    <cellStyle name="Normal_2. Bebas-Belum Bebas 2" xfId="6"/>
-    <cellStyle name="Normal_4. Data Induk1 2" xfId="5"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Normal 2 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Normal 3" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Normal 4" xfId="22" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Normal_2. Bebas-Belum Bebas 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Normal_4. Data Induk1 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2158,7 +2172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2191,9 +2205,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2226,6 +2257,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2401,13 +2449,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A2:AX24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2787,47 +2837,47 @@
         <v>40</v>
       </c>
       <c r="D13" s="57">
-        <f>SUM(D10:D12)</f>
+        <f t="shared" ref="D13:N13" si="7">SUM(D10:D12)</f>
         <v>9</v>
       </c>
       <c r="E13" s="57">
-        <f>SUM(E10:E12)</f>
+        <f t="shared" si="7"/>
         <v>16559</v>
       </c>
       <c r="F13" s="57">
-        <f>SUM(F10:F12)</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G13" s="57">
-        <f>SUM(G10:G12)</f>
+        <f t="shared" si="7"/>
         <v>17827</v>
       </c>
       <c r="H13" s="57">
-        <f>SUM(H10:H12)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="I13" s="57">
-        <f>SUM(I10:I12)</f>
+        <f t="shared" si="7"/>
         <v>34386</v>
       </c>
       <c r="J13" s="57">
-        <f>SUM(J10:J12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K13" s="57">
-        <f>SUM(K10:K12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L13" s="57">
-        <f>SUM(L10:L12)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M13" s="57">
-        <f>SUM(M10:M12)</f>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="N13" s="57">
-        <f>SUM(N10:N12)</f>
+        <f t="shared" si="7"/>
         <v>34386</v>
       </c>
       <c r="O13" s="58"/>
@@ -3029,15 +3079,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3130,11 +3180,11 @@
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="269" t="s">
+      <c r="B4" s="252" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -3217,46 +3267,46 @@
     </row>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="265" t="s">
+      <c r="D7" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="266" t="s">
+      <c r="E7" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="267"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="258" t="s">
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="252" t="s">
+      <c r="I7" s="269"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="254"/>
-      <c r="M7" s="252" t="s">
+      <c r="L7" s="263"/>
+      <c r="M7" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="254"/>
-      <c r="O7" s="252" t="s">
+      <c r="N7" s="263"/>
+      <c r="O7" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="252" t="s">
+      <c r="P7" s="264"/>
+      <c r="Q7" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="254"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="255" t="s">
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="257" t="s">
+      <c r="U7" s="267" t="s">
         <v>2</v>
       </c>
       <c r="V7" s="5"/>
@@ -3266,9 +3316,9 @@
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="262"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="255"/>
       <c r="E8" s="119" t="s">
         <v>3</v>
       </c>
@@ -3314,8 +3364,8 @@
       <c r="S8" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="256"/>
-      <c r="U8" s="257"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -3851,46 +3901,46 @@
     </row>
     <row r="25" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
-      <c r="B25" s="261" t="s">
+      <c r="B25" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="263" t="s">
+      <c r="C25" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="265" t="s">
+      <c r="D25" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="266" t="s">
+      <c r="E25" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="267"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="258" t="s">
+      <c r="F25" s="260"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="I25" s="259"/>
-      <c r="J25" s="260"/>
-      <c r="K25" s="252" t="s">
+      <c r="I25" s="269"/>
+      <c r="J25" s="270"/>
+      <c r="K25" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="L25" s="254"/>
-      <c r="M25" s="252" t="s">
+      <c r="L25" s="263"/>
+      <c r="M25" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="N25" s="254"/>
-      <c r="O25" s="252" t="s">
+      <c r="N25" s="263"/>
+      <c r="O25" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="P25" s="253"/>
-      <c r="Q25" s="252" t="s">
+      <c r="P25" s="264"/>
+      <c r="Q25" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="R25" s="254"/>
-      <c r="S25" s="254"/>
-      <c r="T25" s="255" t="s">
+      <c r="R25" s="263"/>
+      <c r="S25" s="263"/>
+      <c r="T25" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="U25" s="257" t="s">
+      <c r="U25" s="267" t="s">
         <v>2</v>
       </c>
       <c r="V25" s="5"/>
@@ -3900,9 +3950,9 @@
     </row>
     <row r="26" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
-      <c r="B26" s="262"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="262"/>
+      <c r="B26" s="255"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="255"/>
       <c r="E26" s="119" t="s">
         <v>3</v>
       </c>
@@ -3948,8 +3998,8 @@
       <c r="S26" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T26" s="256"/>
-      <c r="U26" s="257"/>
+      <c r="T26" s="266"/>
+      <c r="U26" s="267"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
@@ -6953,16 +7003,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="K25:L25"/>
     <mergeCell ref="O25:P25"/>
     <mergeCell ref="Q25:S25"/>
     <mergeCell ref="T25:T26"/>
@@ -6976,6 +7016,16 @@
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
@@ -6984,13 +7034,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:Y169"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7083,12 +7135,12 @@
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="269" t="str">
+      <c r="B4" s="252" t="str">
         <f>BP!B4</f>
         <v>TAHUN 2020</v>
       </c>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -7171,46 +7223,46 @@
     </row>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="265" t="s">
+      <c r="D7" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="266" t="s">
+      <c r="E7" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="267"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="258" t="s">
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="252" t="s">
+      <c r="I7" s="269"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="254"/>
-      <c r="M7" s="252" t="s">
+      <c r="L7" s="263"/>
+      <c r="M7" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="254"/>
-      <c r="O7" s="252" t="s">
+      <c r="N7" s="263"/>
+      <c r="O7" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="252" t="s">
+      <c r="P7" s="264"/>
+      <c r="Q7" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="254"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="255" t="s">
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="257" t="s">
+      <c r="U7" s="267" t="s">
         <v>2</v>
       </c>
       <c r="V7" s="5"/>
@@ -7220,9 +7272,9 @@
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="262"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="255"/>
       <c r="E8" s="119" t="s">
         <v>3</v>
       </c>
@@ -7268,8 +7320,8 @@
       <c r="S8" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="256"/>
-      <c r="U8" s="257"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -8096,46 +8148,46 @@
     </row>
     <row r="34" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="261" t="s">
+      <c r="B34" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="263" t="s">
+      <c r="C34" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="265" t="s">
+      <c r="D34" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="266" t="s">
+      <c r="E34" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="267"/>
-      <c r="G34" s="268"/>
-      <c r="H34" s="258" t="s">
+      <c r="F34" s="260"/>
+      <c r="G34" s="261"/>
+      <c r="H34" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="I34" s="259"/>
-      <c r="J34" s="260"/>
-      <c r="K34" s="252" t="s">
+      <c r="I34" s="269"/>
+      <c r="J34" s="270"/>
+      <c r="K34" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="L34" s="254"/>
-      <c r="M34" s="252" t="s">
+      <c r="L34" s="263"/>
+      <c r="M34" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="N34" s="254"/>
-      <c r="O34" s="252" t="s">
+      <c r="N34" s="263"/>
+      <c r="O34" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="P34" s="253"/>
-      <c r="Q34" s="252" t="s">
+      <c r="P34" s="264"/>
+      <c r="Q34" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="254"/>
-      <c r="S34" s="254"/>
-      <c r="T34" s="255" t="s">
+      <c r="R34" s="263"/>
+      <c r="S34" s="263"/>
+      <c r="T34" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="U34" s="257" t="s">
+      <c r="U34" s="267" t="s">
         <v>2</v>
       </c>
       <c r="V34" s="5"/>
@@ -8145,9 +8197,9 @@
     </row>
     <row r="35" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="262"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="262"/>
+      <c r="B35" s="255"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="255"/>
       <c r="E35" s="119" t="s">
         <v>3</v>
       </c>
@@ -8193,8 +8245,8 @@
       <c r="S35" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T35" s="256"/>
-      <c r="U35" s="257"/>
+      <c r="T35" s="266"/>
+      <c r="U35" s="267"/>
       <c r="V35" s="5"/>
       <c r="W35" s="5"/>
       <c r="X35" s="5"/>
@@ -11199,17 +11251,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="I18:I19"/>
     <mergeCell ref="J18:J19"/>
@@ -11226,6 +11267,17 @@
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="T7:T8"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:G7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236204" right="0.196850393700787" top="0.59055118110236204" bottom="0.196850393700787" header="0" footer="0"/>
@@ -11234,14 +11286,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y165"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11333,12 +11387,12 @@
     </row>
     <row r="4" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="269" t="str">
+      <c r="B4" s="252" t="str">
         <f>BP!B4</f>
         <v>TAHUN 2020</v>
       </c>
-      <c r="C4" s="270"/>
-      <c r="D4" s="270"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -11421,46 +11475,46 @@
     </row>
     <row r="7" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="263" t="s">
+      <c r="C7" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="265" t="s">
+      <c r="D7" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="266" t="s">
+      <c r="E7" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="267"/>
-      <c r="G7" s="268"/>
-      <c r="H7" s="258" t="s">
+      <c r="F7" s="260"/>
+      <c r="G7" s="261"/>
+      <c r="H7" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="252" t="s">
+      <c r="I7" s="269"/>
+      <c r="J7" s="270"/>
+      <c r="K7" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="L7" s="254"/>
-      <c r="M7" s="252" t="s">
+      <c r="L7" s="263"/>
+      <c r="M7" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="254"/>
-      <c r="O7" s="252" t="s">
+      <c r="N7" s="263"/>
+      <c r="O7" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="253"/>
-      <c r="Q7" s="252" t="s">
+      <c r="P7" s="264"/>
+      <c r="Q7" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="254"/>
-      <c r="S7" s="254"/>
-      <c r="T7" s="255" t="s">
+      <c r="R7" s="263"/>
+      <c r="S7" s="263"/>
+      <c r="T7" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="257" t="s">
+      <c r="U7" s="267" t="s">
         <v>2</v>
       </c>
       <c r="V7" s="5"/>
@@ -11470,9 +11524,9 @@
     </row>
     <row r="8" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="262"/>
-      <c r="C8" s="264"/>
-      <c r="D8" s="262"/>
+      <c r="B8" s="255"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="255"/>
       <c r="E8" s="119" t="s">
         <v>3</v>
       </c>
@@ -11518,8 +11572,8 @@
       <c r="S8" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T8" s="256"/>
-      <c r="U8" s="257"/>
+      <c r="T8" s="266"/>
+      <c r="U8" s="267"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
@@ -12260,46 +12314,46 @@
     </row>
     <row r="30" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="261" t="s">
+      <c r="B30" s="254" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="263" t="s">
+      <c r="C30" s="256" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="265" t="s">
+      <c r="D30" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="266" t="s">
+      <c r="E30" s="259" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="267"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="258" t="s">
+      <c r="F30" s="260"/>
+      <c r="G30" s="261"/>
+      <c r="H30" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="I30" s="259"/>
-      <c r="J30" s="260"/>
-      <c r="K30" s="252" t="s">
+      <c r="I30" s="269"/>
+      <c r="J30" s="270"/>
+      <c r="K30" s="262" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="254"/>
-      <c r="M30" s="252" t="s">
+      <c r="L30" s="263"/>
+      <c r="M30" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="N30" s="254"/>
-      <c r="O30" s="252" t="s">
+      <c r="N30" s="263"/>
+      <c r="O30" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="P30" s="253"/>
-      <c r="Q30" s="252" t="s">
+      <c r="P30" s="264"/>
+      <c r="Q30" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="R30" s="254"/>
-      <c r="S30" s="254"/>
-      <c r="T30" s="255" t="s">
+      <c r="R30" s="263"/>
+      <c r="S30" s="263"/>
+      <c r="T30" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="U30" s="257" t="s">
+      <c r="U30" s="267" t="s">
         <v>2</v>
       </c>
       <c r="V30" s="5"/>
@@ -12309,9 +12363,9 @@
     </row>
     <row r="31" spans="1:25" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="262"/>
-      <c r="C31" s="264"/>
-      <c r="D31" s="262"/>
+      <c r="B31" s="255"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="255"/>
       <c r="E31" s="119" t="s">
         <v>3</v>
       </c>
@@ -12357,8 +12411,8 @@
       <c r="S31" s="78" t="s">
         <v>64</v>
       </c>
-      <c r="T31" s="256"/>
-      <c r="U31" s="257"/>
+      <c r="T31" s="266"/>
+      <c r="U31" s="267"/>
       <c r="V31" s="5"/>
       <c r="W31" s="5"/>
       <c r="X31" s="5"/>
@@ -15364,17 +15418,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="T30:T31"/>
-    <mergeCell ref="U30:U31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:S30"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="B4:D4"/>
@@ -15387,6 +15430,17 @@
     <mergeCell ref="M7:N7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="T30:T31"/>
+    <mergeCell ref="U30:U31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.19685039370078741" top="0.59055118110236227" bottom="0.19685039370078741" header="0" footer="0"/>
